--- a/biology/Botanique/Clairière_de_défrichement/Clairière_de_défrichement.xlsx
+++ b/biology/Botanique/Clairière_de_défrichement/Clairière_de_défrichement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clairi%C3%A8re_de_d%C3%A9frichement</t>
+          <t>Clairière_de_défrichement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors d'une première installation humaine dans une zone jusqu'ici non défrichée, l'homme commence généralement par défricher les abords immédiats de l'endroit où il s'est installé, créant ainsi une clairière de défrichement dans la végétation naturelle. Par la suite, la croissance démographique va rendre nécessaire l'extension de cette clairière, souvent son essaimage, ce qui provoque la création de nouvelles clairières. Si l'expansion de la population continue, les différents clairières se rejoignent progressivement, ce qui peut provoquer la disparition totale de la végétation naturelle préexistante.
 Mais souvent, si la pression démographique est modérée, les zones naturelles situées à la périphérie des terroirs habités restent en tout ou partie non défrichées. L'observation des cartes montre alors souvent, coïncidant peu ou prou avec les limites communales, la persistance de bois, forêts, landes ou tout autre type de végétation naturelle.
